--- a/stadavika2.xlsx
+++ b/stadavika2.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="83">
   <si>
     <t>Validator á input</t>
   </si>
@@ -281,33 +281,18 @@
     <t>Notandi vill geta reiknað út hvaða leið er best til að borga lánin sín</t>
   </si>
   <si>
-    <t>20</t>
-  </si>
-  <si>
     <t>21</t>
   </si>
   <si>
-    <t>22</t>
-  </si>
-  <si>
     <t>23</t>
   </si>
   <si>
-    <t>24</t>
-  </si>
-  <si>
     <t>25</t>
   </si>
   <si>
-    <t>26</t>
-  </si>
-  <si>
     <t>27</t>
   </si>
   <si>
-    <t>wxgui2.py</t>
-  </si>
-  <si>
     <t>Tími unninn</t>
   </si>
   <si>
@@ -330,13 +315,40 @@
   </si>
   <si>
     <t>Einingapróf</t>
+  </si>
+  <si>
+    <t>Notendasögur færðar í næstu Ítrun</t>
+  </si>
+  <si>
+    <t>Ítrun 3 (Inniheldur aðeins frestaðar notendasögur)</t>
+  </si>
+  <si>
+    <t>Notandi vill eta séð hve lengi hann er að safna ákveðinni upphæð      (Úr ítrun 2 í 3)</t>
+  </si>
+  <si>
+    <t>Notandi vill geta séð hagnaðinn á því að leggja fyrir                                      (Úr ítrun 2 í 3)</t>
+  </si>
+  <si>
+    <t>Notandi vill geta séð niðurstöður myndrænt                                                        (Úr ítrun 2 í 3)</t>
+  </si>
+  <si>
+    <t>Heldur utan um reikninga og föll til að reikna með reikninga.</t>
+  </si>
+  <si>
+    <t>wxgui3.py</t>
+  </si>
+  <si>
+    <t>test_fjarmal.py</t>
+  </si>
+  <si>
+    <t>Einingaprófunin fyrir ítrun 2.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -411,6 +423,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -479,15 +498,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
@@ -499,7 +519,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="3" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
@@ -520,14 +539,21 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="10" fillId="5" borderId="2" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="6" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="10" fillId="5" borderId="2" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Calculation" xfId="5" builtinId="22"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Output" xfId="4" builtinId="21"/>
+    <cellStyle name="Warning Text" xfId="6" builtinId="11"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -635,46 +661,46 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>3810</c:v>
+                  <c:v>5580</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3537.8571428571427</c:v>
+                  <c:v>5181.4285714285716</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3265.7142857142853</c:v>
+                  <c:v>4782.8571428571431</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2993.571428571428</c:v>
+                  <c:v>4384.2857142857147</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2721.4285714285706</c:v>
+                  <c:v>3985.7142857142862</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2449.2857142857133</c:v>
+                  <c:v>3587.1428571428578</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2177.142857142856</c:v>
+                  <c:v>3188.5714285714294</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1904.9999999999989</c:v>
+                  <c:v>2790.0000000000009</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1632.8571428571418</c:v>
+                  <c:v>2391.4285714285725</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1360.7142857142846</c:v>
+                  <c:v>1992.857142857144</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1088.5714285714275</c:v>
+                  <c:v>1594.2857142857156</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>816.42857142857042</c:v>
+                  <c:v>1195.7142857142871</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>544.28571428571331</c:v>
+                  <c:v>797.14285714285859</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>272.14285714285614</c:v>
+                  <c:v>398.57142857143003</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="General">
                   <c:v>0</c:v>
@@ -748,66 +774,65 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Notendasögur!$H$2:$H$16</c:f>
+              <c:f>Notendasögur!$H$3:$H$17</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>3810</c:v>
+                  <c:v>5580</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3730</c:v>
+                  <c:v>5580</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3730</c:v>
+                  <c:v>5460</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3550</c:v>
+                  <c:v>5460</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3490</c:v>
+                  <c:v>4830</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3130</c:v>
+                  <c:v>4110</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2710</c:v>
+                  <c:v>3630</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2230</c:v>
+                  <c:v>3630</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2230</c:v>
+                  <c:v>3630</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2230</c:v>
+                  <c:v>3630</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2230</c:v>
+                  <c:v>3630</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2230</c:v>
+                  <c:v>3630</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2230</c:v>
+                  <c:v>3630</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2230</c:v>
+                  <c:v>3630</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2230</c:v>
+                  <c:v>3630</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
         <c:marker val="1"/>
-        <c:axId val="118939008"/>
-        <c:axId val="122360960"/>
+        <c:axId val="116514176"/>
+        <c:axId val="120525952"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="118939008"/>
+        <c:axId val="116514176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -815,14 +840,14 @@
         <c:numFmt formatCode="d/m/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="122360960"/>
+        <c:crossAx val="120525952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="122360960"/>
+        <c:axId val="120525952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -836,7 +861,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="118939008"/>
+        <c:crossAx val="116514176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -888,7 +913,541 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="is-IS"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="is-IS"/>
+              <a:t>Ítrun 1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Tími eftir</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Notendasögur!$J$2:$J$9</c:f>
+              <c:numCache>
+                <c:formatCode>d/m/yyyy</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>41668</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41669</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41670</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41671</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41672</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41673</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41674</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41675</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Notendasögur!$G$21:$G$28</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2640</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2262.8571428571427</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1885.7142857142856</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1508.5714285714284</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1131.4285714285713</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>754.28571428571422</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>377.14285714285705</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Rauntími eftir</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Notendasögur!$J$2:$J$9</c:f>
+              <c:numCache>
+                <c:formatCode>d/m/yyyy</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>41668</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41669</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41670</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41671</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41672</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41673</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41674</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41675</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Notendasögur!$H$22:$H$29</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2640</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2640</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2640</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2340</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2340</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1560</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>810</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="78892416"/>
+        <c:axId val="135245184"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="78892416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="d/m/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="135245184"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="135245184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9525">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="78892416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:srgbClr val="5E9EFF"/>
+        </a:gs>
+        <a:gs pos="39999">
+          <a:srgbClr val="85C2FF"/>
+        </a:gs>
+        <a:gs pos="70000">
+          <a:srgbClr val="C4D6EB"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:srgbClr val="FFEBFA"/>
+        </a:gs>
+      </a:gsLst>
+      <a:lin ang="2700000" scaled="0"/>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln cap="rnd" cmpd="dbl">
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+    </a:ln>
+    <a:effectLst>
+      <a:innerShdw blurRad="114300">
+        <a:prstClr val="black"/>
+      </a:innerShdw>
+    </a:effectLst>
+    <a:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </a:scene3d>
+    <a:sp3d>
+      <a:bevelT/>
+      <a:bevelB/>
+    </a:sp3d>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="is-IS"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="is-IS"/>
+              <a:t>Ítrun 2</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Tími eftir</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Notendasögur!$J$21:$J$28</c:f>
+              <c:numCache>
+                <c:formatCode>d/m/yyyy</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>41668</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41669</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41670</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41671</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41672</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41673</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41674</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41675</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Notendasögur!$G$40:$G$46</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Rauntími eftir</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Notendasögur!$J$21:$J$28</c:f>
+              <c:numCache>
+                <c:formatCode>d/m/yyyy</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>41668</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41669</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41670</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41671</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41672</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41673</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41674</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41675</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Notendasögur!$H$41:$H$47</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2220</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1740</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>720</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="50476160"/>
+        <c:axId val="50524544"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="50476160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="d/m/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50524544"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="50524544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9525">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="50476160"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:srgbClr val="5E9EFF"/>
+        </a:gs>
+        <a:gs pos="39999">
+          <a:srgbClr val="85C2FF"/>
+        </a:gs>
+        <a:gs pos="70000">
+          <a:srgbClr val="C4D6EB"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:srgbClr val="FFEBFA"/>
+        </a:gs>
+      </a:gsLst>
+      <a:lin ang="2700000" scaled="0"/>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln cap="rnd" cmpd="dbl">
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+    </a:ln>
+    <a:effectLst>
+      <a:innerShdw blurRad="114300">
+        <a:prstClr val="black"/>
+      </a:innerShdw>
+    </a:effectLst>
+    <a:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </a:scene3d>
+    <a:sp3d>
+      <a:bevelT/>
+      <a:bevelB/>
+    </a:sp3d>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -921,6 +1480,66 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>13607</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>1360</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1226,10 +1845,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J58"/>
+  <dimension ref="A1:J69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView tabSelected="1" topLeftCell="C13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1239,7 +1858,7 @@
     <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
     <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="60.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="77.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.28515625" customWidth="1"/>
@@ -1269,7 +1888,7 @@
         <v>14</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>15</v>
@@ -1277,12 +1896,12 @@
     </row>
     <row r="2" spans="1:10">
       <c r="G2" s="6">
-        <f>C57</f>
-        <v>3810</v>
+        <f>C65</f>
+        <v>5580</v>
       </c>
       <c r="H2" s="6">
         <f>G2</f>
-        <v>3810</v>
+        <v>5580</v>
       </c>
       <c r="I2" s="6">
         <v>0</v>
@@ -1292,60 +1911,56 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14" t="s">
+      <c r="A3" s="13"/>
+      <c r="B3" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="13">
         <f>SUM(C4:C7)</f>
         <v>690</v>
       </c>
       <c r="D3" s="6"/>
-      <c r="E3" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="F3" s="21" t="s">
+      <c r="E3" s="9"/>
+      <c r="F3" s="20" t="s">
         <v>50</v>
       </c>
       <c r="G3" s="6">
         <f>G2-G19</f>
-        <v>3537.8571428571427</v>
+        <v>5181.4285714285716</v>
       </c>
       <c r="H3" s="6">
         <f>H2-I3</f>
-        <v>3730</v>
+        <v>5580</v>
       </c>
       <c r="I3" s="6">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="J3" s="5">
         <v>41669</v>
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="14">
+      <c r="A4" s="13">
         <v>1</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="13">
         <v>180</v>
       </c>
       <c r="D4" s="6"/>
-      <c r="E4" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="F4" s="21" t="s">
+      <c r="E4" s="9"/>
+      <c r="F4" s="20" t="s">
         <v>59</v>
       </c>
       <c r="G4" s="6">
         <f>G3-G19</f>
-        <v>3265.7142857142853</v>
+        <v>4782.8571428571431</v>
       </c>
       <c r="H4" s="6">
         <f t="shared" ref="H4:H15" si="0">H3-I4</f>
-        <v>3730</v>
+        <v>5580</v>
       </c>
       <c r="I4" s="6">
         <v>0</v>
@@ -1355,96 +1970,90 @@
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="14">
+      <c r="A5" s="13">
         <v>2</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="13">
         <v>120</v>
       </c>
       <c r="D5" s="6"/>
-      <c r="E5" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="F5" s="21" t="s">
+      <c r="E5" s="9"/>
+      <c r="F5" s="20" t="s">
         <v>60</v>
       </c>
       <c r="G5" s="6">
         <f>G4-G19</f>
-        <v>2993.571428571428</v>
+        <v>4384.2857142857147</v>
       </c>
       <c r="H5" s="6">
         <f t="shared" si="0"/>
-        <v>3550</v>
+        <v>5460</v>
       </c>
       <c r="I5" s="6">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="J5" s="5">
         <v>41671</v>
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="14">
+      <c r="A6" s="13">
         <v>3</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="13">
         <v>90</v>
       </c>
       <c r="D6" s="6"/>
-      <c r="E6" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="F6" s="21" t="s">
+      <c r="E6" s="9"/>
+      <c r="F6" s="20" t="s">
         <v>61</v>
       </c>
       <c r="G6" s="6">
         <f>G5-G19</f>
-        <v>2721.4285714285706</v>
+        <v>3985.7142857142862</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" si="0"/>
-        <v>3490</v>
+        <v>5460</v>
       </c>
       <c r="I6" s="6">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="J6" s="5">
         <v>41672</v>
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="14">
+      <c r="A7" s="13">
         <v>4</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="13">
         <v>300</v>
       </c>
       <c r="D7" s="6"/>
-      <c r="E7" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="F7" s="21" t="s">
+      <c r="E7" s="9"/>
+      <c r="F7" s="20" t="s">
         <v>5</v>
       </c>
       <c r="G7" s="6">
         <f>G6-G19</f>
-        <v>2449.2857142857133</v>
+        <v>3587.1428571428578</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" si="0"/>
-        <v>3130</v>
+        <v>4830</v>
       </c>
       <c r="I7" s="6">
-        <v>360</v>
+        <v>630</v>
       </c>
       <c r="J7" s="5">
         <v>41673</v>
@@ -1452,44 +2061,46 @@
     </row>
     <row r="8" spans="1:10">
       <c r="D8" s="6"/>
-      <c r="E8" s="10" t="s">
-        <v>67</v>
+      <c r="E8" s="9"/>
+      <c r="F8" s="20" t="s">
+        <v>71</v>
       </c>
       <c r="G8" s="6">
         <f>G7-G19</f>
-        <v>2177.142857142856</v>
+        <v>3188.5714285714294</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" si="0"/>
-        <v>2710</v>
+        <v>4110</v>
       </c>
       <c r="I8" s="6">
-        <v>420</v>
+        <v>720</v>
       </c>
       <c r="J8" s="5">
         <v>41674</v>
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="18"/>
-      <c r="B9" s="14" t="s">
+      <c r="A9" s="17"/>
+      <c r="B9" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="16">
         <f>SUM(C10:C12)</f>
         <v>360</v>
       </c>
       <c r="D9" s="6"/>
-      <c r="E9" s="10" t="s">
-        <v>68</v>
+      <c r="E9" s="9"/>
+      <c r="F9" s="20" t="s">
+        <v>73</v>
       </c>
       <c r="G9" s="6">
         <f>G8-G19</f>
-        <v>1904.9999999999989</v>
+        <v>2790.0000000000009</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" si="0"/>
-        <v>2230</v>
+        <v>3630</v>
       </c>
       <c r="I9" s="6">
         <v>480</v>
@@ -1499,26 +2110,24 @@
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="18">
+      <c r="A10" s="17">
         <v>5</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="16">
         <v>120</v>
       </c>
       <c r="D10" s="6"/>
-      <c r="E10" s="10" t="s">
-        <v>69</v>
-      </c>
+      <c r="E10" s="9"/>
       <c r="G10" s="6">
         <f>G9-G19</f>
-        <v>1632.8571428571418</v>
+        <v>2391.4285714285725</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" si="0"/>
-        <v>2230</v>
+        <v>3630</v>
       </c>
       <c r="I10" s="6">
         <v>0</v>
@@ -1528,24 +2137,26 @@
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="18">
+      <c r="A11" s="17">
         <v>6</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="16">
         <v>180</v>
       </c>
       <c r="D11" s="6"/>
-      <c r="E11" s="11"/>
+      <c r="E11" s="10" t="s">
+        <v>62</v>
+      </c>
       <c r="G11" s="6">
         <f>G10-G19</f>
-        <v>1360.7142857142846</v>
+        <v>1992.857142857144</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" si="0"/>
-        <v>2230</v>
+        <v>3630</v>
       </c>
       <c r="I11" s="6">
         <v>0</v>
@@ -1555,24 +2166,26 @@
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="18">
+      <c r="A12" s="17">
         <v>7</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C12" s="16">
         <v>60</v>
       </c>
       <c r="D12" s="6"/>
-      <c r="E12" s="11"/>
+      <c r="E12" s="10" t="s">
+        <v>63</v>
+      </c>
       <c r="G12" s="6">
         <f>G11-G19</f>
-        <v>1088.5714285714275</v>
+        <v>1594.2857142857156</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" si="0"/>
-        <v>2230</v>
+        <v>3630</v>
       </c>
       <c r="I12" s="6">
         <v>0</v>
@@ -1581,17 +2194,22 @@
         <v>41678</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="19"/>
+    <row r="13" spans="1:10" ht="18.75">
+      <c r="A13" s="18"/>
       <c r="D13" s="6"/>
-      <c r="E13" s="11"/>
+      <c r="E13" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>74</v>
+      </c>
       <c r="G13" s="6">
         <f>G12-G19</f>
-        <v>816.42857142857042</v>
+        <v>1195.7142857142871</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" si="0"/>
-        <v>2230</v>
+        <v>3630</v>
       </c>
       <c r="I13" s="6">
         <v>0</v>
@@ -1601,23 +2219,26 @@
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="18"/>
-      <c r="B14" s="14" t="s">
+      <c r="A14" s="17"/>
+      <c r="B14" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="17">
+      <c r="C14" s="16">
         <f>SUM(C15:C20)</f>
         <v>420</v>
       </c>
       <c r="D14" s="6"/>
-      <c r="E14" s="11"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="21" t="s">
+        <v>78</v>
+      </c>
       <c r="G14" s="6">
         <f>G13-G19</f>
-        <v>544.28571428571331</v>
+        <v>797.14285714285859</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" si="0"/>
-        <v>2230</v>
+        <v>3630</v>
       </c>
       <c r="I14" s="6">
         <v>0</v>
@@ -1627,24 +2248,27 @@
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="18">
+      <c r="A15" s="17">
         <v>8</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="17">
+      <c r="C15" s="16">
         <v>30</v>
       </c>
       <c r="D15" s="6"/>
-      <c r="E15" s="11"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="21" t="s">
+        <v>77</v>
+      </c>
       <c r="G15" s="6">
         <f>G14-G19</f>
-        <v>272.14285714285614</v>
+        <v>398.57142857143003</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" si="0"/>
-        <v>2230</v>
+        <v>3630</v>
       </c>
       <c r="I15" s="6">
         <v>0</v>
@@ -1654,23 +2278,26 @@
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="18">
+      <c r="A16" s="17">
         <v>9</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="17">
+      <c r="C16" s="16">
         <v>60</v>
       </c>
       <c r="D16" s="6"/>
-      <c r="E16" s="11"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="21" t="s">
+        <v>76</v>
+      </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16" s="6">
         <f>H15-I16</f>
-        <v>2230</v>
+        <v>3630</v>
       </c>
       <c r="I16" s="6">
         <v>0</v>
@@ -1680,392 +2307,712 @@
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="18">
+      <c r="A17" s="17">
         <v>10</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="17">
+      <c r="C17" s="16">
         <v>90</v>
       </c>
       <c r="D17" s="6"/>
-      <c r="E17" s="11"/>
+      <c r="E17" s="10"/>
+      <c r="H17" s="6">
+        <f>H16-I17</f>
+        <v>3630</v>
+      </c>
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="18">
+      <c r="A18" s="17">
         <v>11</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="17">
+      <c r="C18" s="16">
         <v>90</v>
       </c>
       <c r="D18" s="6"/>
-      <c r="E18" s="11"/>
+      <c r="E18" s="10"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="18">
+      <c r="A19" s="17">
         <v>12</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="17">
+      <c r="C19" s="16">
         <v>90</v>
       </c>
       <c r="D19" s="6"/>
-      <c r="E19" s="12"/>
+      <c r="E19" s="11" t="s">
+        <v>65</v>
+      </c>
       <c r="G19">
         <f>G2/14</f>
-        <v>272.14285714285717</v>
+        <v>398.57142857142856</v>
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="18">
+      <c r="A20" s="17">
         <v>13</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="14">
+      <c r="C20" s="13">
         <v>60</v>
       </c>
       <c r="D20" s="6"/>
-      <c r="E20" s="12"/>
+      <c r="E20" s="11"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="19"/>
+      <c r="A21" s="18"/>
       <c r="D21" s="6"/>
-      <c r="E21" s="12"/>
+      <c r="E21" s="11"/>
+      <c r="G21" s="6">
+        <f>SUM(C3,C9,C14,C22,C27)</f>
+        <v>2640</v>
+      </c>
+      <c r="H21" s="6">
+        <f>G21</f>
+        <v>2640</v>
+      </c>
+      <c r="I21" s="6">
+        <v>0</v>
+      </c>
+      <c r="J21" s="5">
+        <v>41668</v>
+      </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="18"/>
-      <c r="B22" s="14" t="s">
+      <c r="A22" s="17"/>
+      <c r="B22" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="17">
+      <c r="C22" s="16">
         <f>SUM(C23:C25)</f>
         <v>900</v>
       </c>
       <c r="D22" s="6"/>
-      <c r="E22" s="12"/>
+      <c r="E22" s="11"/>
+      <c r="G22" s="6">
+        <f>G21-G31</f>
+        <v>2262.8571428571427</v>
+      </c>
+      <c r="H22" s="6">
+        <f>H21-I21</f>
+        <v>2640</v>
+      </c>
+      <c r="I22" s="6">
+        <v>0</v>
+      </c>
+      <c r="J22" s="5">
+        <v>41669</v>
+      </c>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="18">
+      <c r="A23" s="17">
         <v>14</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="17">
+      <c r="C23" s="16">
         <v>180</v>
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="3"/>
+      <c r="G23" s="6">
+        <f>G22-G31</f>
+        <v>1885.7142857142856</v>
+      </c>
+      <c r="H23" s="6">
+        <f t="shared" ref="H23:H29" si="1">H22-I22</f>
+        <v>2640</v>
+      </c>
+      <c r="I23" s="6">
+        <v>0</v>
+      </c>
+      <c r="J23" s="5">
+        <v>41670</v>
+      </c>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="18">
+      <c r="A24" s="17">
         <v>15</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="C24" s="17">
+      <c r="C24" s="16">
         <v>600</v>
       </c>
       <c r="D24" s="6"/>
-      <c r="E24" s="12"/>
+      <c r="E24" s="11"/>
+      <c r="G24" s="6">
+        <f>G23-G31</f>
+        <v>1508.5714285714284</v>
+      </c>
+      <c r="H24" s="6">
+        <f t="shared" si="1"/>
+        <v>2640</v>
+      </c>
+      <c r="I24" s="6">
+        <v>300</v>
+      </c>
+      <c r="J24" s="5">
+        <v>41671</v>
+      </c>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="18">
+      <c r="A25" s="17">
         <v>16</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="C25" s="14">
+      <c r="C25" s="13">
         <v>120</v>
       </c>
       <c r="D25" s="6"/>
-      <c r="E25" s="12"/>
+      <c r="E25" s="11"/>
+      <c r="G25" s="6">
+        <f>G24-G31</f>
+        <v>1131.4285714285713</v>
+      </c>
+      <c r="H25" s="6">
+        <f t="shared" si="1"/>
+        <v>2340</v>
+      </c>
+      <c r="I25" s="6">
+        <v>0</v>
+      </c>
+      <c r="J25" s="5">
+        <v>41672</v>
+      </c>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="19"/>
+      <c r="A26" s="18"/>
       <c r="D26" s="6"/>
-      <c r="E26" s="12"/>
+      <c r="E26" s="11"/>
+      <c r="G26" s="6">
+        <f>G25-G31</f>
+        <v>754.28571428571422</v>
+      </c>
+      <c r="H26" s="6">
+        <f t="shared" si="1"/>
+        <v>2340</v>
+      </c>
+      <c r="I26" s="6">
+        <v>780</v>
+      </c>
+      <c r="J26" s="5">
+        <v>41673</v>
+      </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="18"/>
-      <c r="B27" s="14" t="s">
+      <c r="A27" s="17"/>
+      <c r="B27" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="14">
+      <c r="C27" s="13">
         <f>SUM(C28:C30)</f>
         <v>270</v>
       </c>
       <c r="D27" s="6"/>
+      <c r="G27" s="6">
+        <f>G26-G31</f>
+        <v>377.14285714285705</v>
+      </c>
+      <c r="H27" s="6">
+        <f t="shared" si="1"/>
+        <v>1560</v>
+      </c>
+      <c r="I27" s="6">
+        <v>750</v>
+      </c>
+      <c r="J27" s="5">
+        <v>41674</v>
+      </c>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="18">
+      <c r="A28" s="17">
         <v>17</v>
       </c>
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="14">
+      <c r="C28" s="13">
         <v>120</v>
       </c>
+      <c r="G28" s="6">
+        <f>G27-G31</f>
+        <v>0</v>
+      </c>
+      <c r="H28" s="6">
+        <f t="shared" si="1"/>
+        <v>810</v>
+      </c>
+      <c r="I28" s="6">
+        <v>810</v>
+      </c>
+      <c r="J28" s="5">
+        <v>41675</v>
+      </c>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="18">
+      <c r="A29" s="17">
         <v>18</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="14">
+      <c r="C29" s="13">
         <v>90</v>
       </c>
-      <c r="D29" s="13" t="s">
+      <c r="D29" s="12" t="s">
         <v>17</v>
       </c>
       <c r="E29" s="2"/>
+      <c r="H29" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="18">
+      <c r="A30" s="17">
         <v>19</v>
       </c>
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="14">
+      <c r="C30" s="13">
         <v>60</v>
       </c>
-      <c r="D30" s="13" t="s">
+      <c r="D30" s="12" t="s">
         <v>18</v>
       </c>
       <c r="E30" s="4"/>
+      <c r="I30" s="6"/>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="19"/>
-      <c r="D31" s="13" t="s">
+      <c r="A31" s="18"/>
+      <c r="D31" s="12" t="s">
         <v>19</v>
       </c>
       <c r="E31" s="3"/>
+      <c r="G31">
+        <f>G21/7</f>
+        <v>377.14285714285717</v>
+      </c>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="20"/>
-      <c r="B32" s="15" t="s">
+      <c r="A32" s="19"/>
+      <c r="B32" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="16">
+      <c r="C32" s="15">
         <f>SUM(C33:C35)</f>
         <v>420</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="20">
+    <row r="33" spans="1:10">
+      <c r="A33" s="19">
         <v>20</v>
       </c>
-      <c r="B33" s="15" t="s">
+      <c r="B33" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="16">
+      <c r="C33" s="15">
         <v>120</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="20">
+    <row r="34" spans="1:10">
+      <c r="A34" s="19">
         <v>21</v>
       </c>
-      <c r="B34" s="15" t="s">
+      <c r="B34" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C34" s="16">
+      <c r="C34" s="15">
         <v>240</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="20">
+    <row r="35" spans="1:10">
+      <c r="A35" s="19">
         <v>22</v>
       </c>
-      <c r="B35" s="15" t="s">
+      <c r="B35" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C35" s="16">
+      <c r="C35" s="15">
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="19"/>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="20"/>
-      <c r="B37" s="15" t="s">
+    <row r="36" spans="1:10">
+      <c r="A36" s="18"/>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="19"/>
+      <c r="B37" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C37" s="16">
+      <c r="C37" s="15">
         <f>SUM(C38:C41)</f>
         <v>720</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="20">
+    <row r="38" spans="1:10">
+      <c r="A38" s="19">
         <v>23</v>
       </c>
-      <c r="B38" s="15" t="s">
+      <c r="B38" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C38" s="16">
+      <c r="C38" s="15">
         <v>180</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="20">
+    <row r="39" spans="1:10">
+      <c r="A39" s="19">
         <v>24</v>
       </c>
-      <c r="B39" s="15" t="s">
+      <c r="B39" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C39" s="16">
+      <c r="C39" s="15">
         <v>180</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="20">
+    <row r="40" spans="1:10">
+      <c r="A40" s="19">
         <v>25</v>
       </c>
-      <c r="B40" s="15" t="s">
+      <c r="B40" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="C40" s="16">
+      <c r="C40" s="15">
         <v>180</v>
       </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="20">
+      <c r="G40" s="6">
+        <f>C68</f>
+        <v>2400</v>
+      </c>
+      <c r="H40" s="6">
+        <f>G40</f>
+        <v>2400</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40" s="5">
+        <v>41676</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="19">
         <v>26</v>
       </c>
-      <c r="B41" s="15" t="s">
+      <c r="B41" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="C41" s="16">
+      <c r="C41" s="15">
         <v>180</v>
       </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="19"/>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="20"/>
-      <c r="B43" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="C43" s="16">
+      <c r="G41" s="6">
+        <f>G40-G48</f>
+        <v>2000</v>
+      </c>
+      <c r="H41" s="6">
+        <f>H40-I40</f>
+        <v>2400</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41" s="5">
+        <v>41677</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="18"/>
+      <c r="G42" s="6">
+        <f>G41-G48</f>
+        <v>1600</v>
+      </c>
+      <c r="H42" s="6">
+        <f t="shared" ref="H42:H47" si="2">H41-I41</f>
+        <v>2400</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42" s="5">
+        <v>41678</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="19"/>
+      <c r="B43" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C43" s="15">
         <v>180</v>
       </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="20">
+      <c r="G43" s="6">
+        <f>G42-G48</f>
+        <v>1200</v>
+      </c>
+      <c r="H43" s="6">
+        <f t="shared" si="2"/>
+        <v>2400</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43" s="5">
+        <v>41679</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="19">
         <v>27</v>
       </c>
-      <c r="B44" s="15" t="s">
+      <c r="B44" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C44" s="15">
+        <v>120</v>
+      </c>
+      <c r="G44" s="6">
+        <f>G43-G48</f>
+        <v>800</v>
+      </c>
+      <c r="H44" s="6">
+        <f t="shared" si="2"/>
+        <v>2400</v>
+      </c>
+      <c r="I44">
+        <v>500</v>
+      </c>
+      <c r="J44" s="5">
+        <v>41680</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="19">
+        <v>28</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C45" s="15">
+        <v>60</v>
+      </c>
+      <c r="G45" s="6">
+        <f>G44-G48</f>
+        <v>400</v>
+      </c>
+      <c r="H45" s="6">
+        <f>H44-I44+320</f>
+        <v>2220</v>
+      </c>
+      <c r="I45">
+        <v>800</v>
+      </c>
+      <c r="J45" s="5">
+        <v>41681</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="G46" s="6">
+        <f>G45-G48</f>
+        <v>0</v>
+      </c>
+      <c r="H46" s="6">
+        <f>H45-I45+320</f>
+        <v>1740</v>
+      </c>
+      <c r="I46">
+        <v>1020</v>
+      </c>
+      <c r="J46" s="5">
+        <v>41682</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="14"/>
+      <c r="B47" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C47" s="14">
+        <v>540</v>
+      </c>
+      <c r="H47" s="6">
+        <f t="shared" si="2"/>
+        <v>720</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" s="14">
+        <v>29</v>
+      </c>
+      <c r="B48" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C48" s="14">
+        <v>180</v>
+      </c>
+      <c r="G48">
+        <f>G40/6</f>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="19">
+        <v>30</v>
+      </c>
+      <c r="B49" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C49" s="14">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="19">
+        <v>31</v>
+      </c>
+      <c r="B50" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C50" s="14">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="14"/>
+      <c r="B52" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C52" s="14">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="14"/>
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="22"/>
+      <c r="B55" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55" s="24">
+        <f>C56</f>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="22">
+        <v>21</v>
+      </c>
+      <c r="B56" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C56" s="24">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="22"/>
+      <c r="B58" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C58" s="24">
+        <f>SUM(C59,C60)</f>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="22">
+        <v>23</v>
+      </c>
+      <c r="B59" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="C59" s="24">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="22">
+        <v>25</v>
+      </c>
+      <c r="B60" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C60" s="24">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="22"/>
+      <c r="B62" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="C44" s="16">
+      <c r="C62" s="24">
+        <f>C63</f>
         <v>120</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="20">
-        <v>28</v>
-      </c>
-      <c r="B45" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="C45" s="16">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="15"/>
-      <c r="B47" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="C47" s="15">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="15">
-        <v>29</v>
-      </c>
-      <c r="B48" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="C48" s="15">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="20">
-        <v>30</v>
-      </c>
-      <c r="B49" s="15" t="s">
+    <row r="63" spans="1:3">
+      <c r="A63" s="22">
+        <v>27</v>
+      </c>
+      <c r="B63" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C63" s="24">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3">
+      <c r="C65" s="6">
+        <f>SUM(C3,C9,C14,C22,C27,C32,C37,C43,C47:C52)</f>
+        <v>5580</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3">
+      <c r="B67" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C67" s="6">
+        <f>SUM(C3,C9,C14,C22,C27)</f>
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3">
+      <c r="B68" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C68" s="6">
+        <f>SUM(C32,C37,C43,C47,C52)</f>
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3">
+      <c r="B69" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="C49" s="15">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="20">
-        <v>31</v>
-      </c>
-      <c r="B50" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C50" s="15">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="15"/>
-      <c r="B52" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="C52" s="15">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="15"/>
-      <c r="B53" s="15"/>
-      <c r="C53" s="15"/>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="9"/>
-      <c r="C55" s="6"/>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="B57" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C57" s="6">
-        <f>SUM(C9,C14,C22,C27,C32,C37,C43,C47)</f>
-        <v>3810</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="B58" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C58" s="6">
-        <f>SUM(C32,C37,C43)</f>
-        <v>1320</v>
+      <c r="C69" s="6">
+        <f>SUM(C55,C58,C62)</f>
+        <v>720</v>
       </c>
     </row>
   </sheetData>
@@ -2077,10 +3024,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2132,7 +3079,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="B6" t="s">
         <v>35</v>
@@ -2157,6 +3104,22 @@
     <row r="9" spans="1:3">
       <c r="B9" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>81</v>
+      </c>
+      <c r="B13" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/stadavika2.xlsx
+++ b/stadavika2.xlsx
@@ -812,27 +812,27 @@
                   <c:v>3630</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3630</c:v>
+                  <c:v>3130</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3630</c:v>
+                  <c:v>2330</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3630</c:v>
+                  <c:v>1310</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3630</c:v>
+                  <c:v>1310</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="116514176"/>
-        <c:axId val="120525952"/>
+        <c:axId val="132398464"/>
+        <c:axId val="134468736"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="116514176"/>
+        <c:axId val="132398464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -840,14 +840,14 @@
         <c:numFmt formatCode="d/m/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="120525952"/>
+        <c:crossAx val="134468736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="120525952"/>
+        <c:axId val="134468736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -861,7 +861,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="116514176"/>
+        <c:crossAx val="132398464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -913,7 +913,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1098,11 +1098,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="78892416"/>
-        <c:axId val="135245184"/>
+        <c:axId val="133703168"/>
+        <c:axId val="133704704"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="78892416"/>
+        <c:axId val="133703168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1110,14 +1110,14 @@
         <c:numFmt formatCode="d/m/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="135245184"/>
+        <c:crossAx val="133704704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="135245184"/>
+        <c:axId val="133704704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1131,7 +1131,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="78892416"/>
+        <c:crossAx val="133703168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1183,7 +1183,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1355,18 +1355,18 @@
                   <c:v>1740</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>720</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="50476160"/>
-        <c:axId val="50524544"/>
+        <c:axId val="133721472"/>
+        <c:axId val="133739648"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="50476160"/>
+        <c:axId val="133721472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1374,14 +1374,14 @@
         <c:numFmt formatCode="d/m/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50524544"/>
+        <c:crossAx val="133739648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="50524544"/>
+        <c:axId val="133739648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1395,7 +1395,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="50476160"/>
+        <c:crossAx val="133721472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1447,7 +1447,269 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="is-IS"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="is-IS"/>
+              <a:t>Ítrun</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="is-IS" baseline="0"/>
+              <a:t> 3</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Tími eftir</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Notendasögur!$J$55:$J$61</c:f>
+              <c:numCache>
+                <c:formatCode>d/m/yyyy</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>41683</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41684</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41685</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41686</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41687</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41688</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41689</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Notendasögur!$G$55:$G$61</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Rauntími eftir</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Notendasögur!$J$55:$J$61</c:f>
+              <c:numCache>
+                <c:formatCode>d/m/yyyy</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>41683</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41684</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41685</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41686</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41687</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41688</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41689</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Notendasögur!$H$56:$H$62</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="143396864"/>
+        <c:axId val="143398400"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="143396864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="d/m/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="143398400"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="143398400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9525">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="143396864"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:srgbClr val="5E9EFF"/>
+        </a:gs>
+        <a:gs pos="39999">
+          <a:srgbClr val="85C2FF"/>
+        </a:gs>
+        <a:gs pos="70000">
+          <a:srgbClr val="C4D6EB"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:srgbClr val="FFEBFA"/>
+        </a:gs>
+      </a:gsLst>
+      <a:lin ang="2700000" scaled="0"/>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln cap="rnd" cmpd="dbl">
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+    </a:ln>
+    <a:effectLst>
+      <a:innerShdw blurRad="114300">
+        <a:prstClr val="black"/>
+      </a:innerShdw>
+    </a:effectLst>
+    <a:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </a:scene3d>
+    <a:sp3d>
+      <a:bevelT/>
+      <a:bevelB/>
+    </a:sp3d>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1540,6 +1802,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>593889</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1847,8 +2139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
+    <sheetView tabSelected="1" topLeftCell="B12" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2238,10 +2530,10 @@
       </c>
       <c r="H14" s="6">
         <f t="shared" si="0"/>
-        <v>3630</v>
+        <v>3130</v>
       </c>
       <c r="I14" s="6">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="J14" s="5">
         <v>41680</v>
@@ -2268,10 +2560,10 @@
       </c>
       <c r="H15" s="6">
         <f t="shared" si="0"/>
-        <v>3630</v>
+        <v>2330</v>
       </c>
       <c r="I15" s="6">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="J15" s="5">
         <v>41681</v>
@@ -2297,10 +2589,10 @@
       </c>
       <c r="H16" s="6">
         <f>H15-I16</f>
-        <v>3630</v>
+        <v>1310</v>
       </c>
       <c r="I16" s="6">
-        <v>0</v>
+        <v>1020</v>
       </c>
       <c r="J16" s="5">
         <v>41682</v>
@@ -2320,7 +2612,7 @@
       <c r="E17" s="10"/>
       <c r="H17" s="6">
         <f>H16-I17</f>
-        <v>3630</v>
+        <v>1310</v>
       </c>
       <c r="J17" s="5"/>
     </row>
@@ -2853,8 +3145,7 @@
         <v>540</v>
       </c>
       <c r="H47" s="6">
-        <f t="shared" si="2"/>
-        <v>720</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -2872,7 +3163,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:10">
       <c r="A49" s="19">
         <v>30</v>
       </c>
@@ -2883,7 +3174,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:10">
       <c r="A50" s="19">
         <v>31</v>
       </c>
@@ -2894,7 +3185,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:10">
       <c r="A52" s="14"/>
       <c r="B52" s="14" t="s">
         <v>73</v>
@@ -2903,12 +3194,12 @@
         <v>540</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:10">
       <c r="A53" s="14"/>
       <c r="B53" s="14"/>
       <c r="C53" s="14"/>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:10">
       <c r="A55" s="22"/>
       <c r="B55" s="23" t="s">
         <v>7</v>
@@ -2917,8 +3208,20 @@
         <f>C56</f>
         <v>240</v>
       </c>
-    </row>
-    <row r="56" spans="1:3">
+      <c r="G55" s="6">
+        <v>720</v>
+      </c>
+      <c r="H55" s="6">
+        <v>720</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55" s="5">
+        <v>41683</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="22">
         <v>21</v>
       </c>
@@ -2928,8 +3231,38 @@
       <c r="C56" s="24">
         <v>240</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="G56" s="6">
+        <f>G55-G63</f>
+        <v>600</v>
+      </c>
+      <c r="H56" s="6">
+        <f>H55-I55</f>
+        <v>720</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56" s="5">
+        <v>41684</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="G57" s="6">
+        <f>G56-G63</f>
+        <v>480</v>
+      </c>
+      <c r="H57" s="6">
+        <f>H56-I56</f>
+        <v>720</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57" s="5">
+        <v>41685</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="22"/>
       <c r="B58" s="23" t="s">
         <v>3</v>
@@ -2938,8 +3271,22 @@
         <f>SUM(C59,C60)</f>
         <v>360</v>
       </c>
-    </row>
-    <row r="59" spans="1:3">
+      <c r="G58" s="6">
+        <f>G57-G63</f>
+        <v>360</v>
+      </c>
+      <c r="H58" s="6">
+        <f>H57-I57</f>
+        <v>720</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58" s="5">
+        <v>41686</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="22">
         <v>23</v>
       </c>
@@ -2949,8 +3296,22 @@
       <c r="C59" s="24">
         <v>180</v>
       </c>
-    </row>
-    <row r="60" spans="1:3">
+      <c r="G59" s="6">
+        <f>G58-G63</f>
+        <v>240</v>
+      </c>
+      <c r="H59" s="6">
+        <f>H58-I58</f>
+        <v>720</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59" s="5">
+        <v>41687</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="22">
         <v>25</v>
       </c>
@@ -2960,8 +3321,38 @@
       <c r="C60" s="24">
         <v>180</v>
       </c>
-    </row>
-    <row r="62" spans="1:3">
+      <c r="G60" s="6">
+        <f>G59-G63</f>
+        <v>120</v>
+      </c>
+      <c r="H60" s="6">
+        <f>H59-I59</f>
+        <v>720</v>
+      </c>
+      <c r="I60">
+        <v>720</v>
+      </c>
+      <c r="J60" s="5">
+        <v>41688</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="G61" s="6">
+        <f>G60-G63</f>
+        <v>0</v>
+      </c>
+      <c r="H61" s="6">
+        <f>H60-I60</f>
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61" s="5">
+        <v>41689</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="22"/>
       <c r="B62" s="23" t="s">
         <v>72</v>
@@ -2970,8 +3361,12 @@
         <f>C63</f>
         <v>120</v>
       </c>
-    </row>
-    <row r="63" spans="1:3">
+      <c r="H62" s="6">
+        <f>H61-I61</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="22">
         <v>27</v>
       </c>
@@ -2979,6 +3374,10 @@
         <v>67</v>
       </c>
       <c r="C63" s="24">
+        <v>120</v>
+      </c>
+      <c r="G63">
+        <f>G55/6</f>
         <v>120</v>
       </c>
     </row>
